--- a/Work/MS BRIBox/PM/2/KC Payakumbuh/FORM PM Unit Pasar Ibuh.xlsx
+++ b/Work/MS BRIBox/PM/2/KC Payakumbuh/FORM PM Unit Pasar Ibuh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jamil\Work\MS BRIBox\PM\2\KC Payakumbuh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0BB9D3-ECEC-407E-A14D-2AD43E225295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0939E5-538C-489C-BC23-1B3E28256FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form PM'!$A$7:$W$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="228">
   <si>
     <t>FORM PM PERANGKAT IT BRIBOX</t>
   </si>
@@ -1108,7 +1108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1337,6 +1337,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1585,8 +1588,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T71" sqref="A1:V71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1618,28 +1621,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="92"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
@@ -1753,10 +1756,10 @@
       <c r="T7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="92" t="s">
+      <c r="U7" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="93"/>
+      <c r="V7" s="94"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
@@ -3154,7 +3157,7 @@
       <c r="D34" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="86" t="s">
         <v>94</v>
       </c>
       <c r="F34" s="72" t="s">
@@ -3203,7 +3206,7 @@
       <c r="D35" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="55" t="s">
         <v>226</v>
       </c>
       <c r="F35" s="72" t="s">
@@ -3229,7 +3232,9 @@
       <c r="T35" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="U35" s="55"/>
+      <c r="U35" s="55" t="s">
+        <v>60</v>
+      </c>
       <c r="V35" s="55"/>
       <c r="W35" s="50"/>
     </row>
@@ -4430,12 +4435,14 @@
       <c r="N62" s="84"/>
       <c r="O62" s="84"/>
       <c r="P62" s="84"/>
-      <c r="Q62" s="84"/>
-      <c r="R62" s="84"/>
-      <c r="S62" s="84"/>
-      <c r="T62" s="85"/>
-      <c r="U62" s="84"/>
-      <c r="V62" s="84"/>
+      <c r="Q62" s="88" t="s">
+        <v>227</v>
+      </c>
+      <c r="R62" s="88"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="88"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="88"/>
     </row>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="83"/>
@@ -4454,14 +4461,14 @@
       <c r="N63" s="84"/>
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
-      <c r="Q63" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="R63" s="87"/>
-      <c r="S63" s="87"/>
-      <c r="T63" s="87"/>
-      <c r="U63" s="87"/>
-      <c r="V63" s="87"/>
+      <c r="Q63" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="R63" s="95"/>
+      <c r="S63" s="95"/>
+      <c r="T63" s="95"/>
+      <c r="U63" s="95"/>
+      <c r="V63" s="95"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="83"/>
@@ -4480,14 +4487,9 @@
       <c r="N64" s="84"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
-      <c r="Q64" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="R64" s="94"/>
-      <c r="S64" s="94"/>
-      <c r="T64" s="94"/>
-      <c r="U64" s="94"/>
-      <c r="V64" s="94"/>
+      <c r="T64" s="77"/>
+      <c r="U64" s="77"/>
+      <c r="V64" s="77"/>
     </row>
     <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="83"/>
@@ -4548,9 +4550,8 @@
       <c r="N67" s="84"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
-      <c r="T67" s="77"/>
-      <c r="U67" s="77"/>
-      <c r="V67" s="77"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="50"/>
     </row>
     <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="83"/>
@@ -4569,8 +4570,6 @@
       <c r="N68" s="84"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
-      <c r="Q68" s="50"/>
-      <c r="R68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="83"/>
@@ -4589,6 +4588,7 @@
       <c r="N69" s="84"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
+      <c r="S69" s="78"/>
     </row>
     <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="83"/>
@@ -4607,7 +4607,13 @@
       <c r="N70" s="84"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
-      <c r="S70" s="78"/>
+      <c r="Q70" s="87"/>
+      <c r="R70" s="87"/>
+      <c r="T70" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="U70" s="88"/>
+      <c r="V70" s="88"/>
     </row>
     <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="83"/>
@@ -4626,13 +4632,15 @@
       <c r="N71" s="84"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
-      <c r="Q71" s="86"/>
-      <c r="R71" s="86"/>
-      <c r="T71" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="U71" s="87"/>
-      <c r="V71" s="87"/>
+      <c r="Q71" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="R71" s="89"/>
+      <c r="T71" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="U71" s="88"/>
+      <c r="V71" s="88"/>
     </row>
     <row r="72" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="83"/>
@@ -4651,15 +4659,6 @@
       <c r="N72" s="84"/>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
-      <c r="Q72" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="R72" s="88"/>
-      <c r="T72" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="U72" s="87"/>
-      <c r="V72" s="87"/>
     </row>
     <row r="73" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="83"/>
@@ -4678,16 +4677,9 @@
       <c r="N73" s="84"/>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
-      <c r="Q73" s="83"/>
-      <c r="R73" s="84"/>
-      <c r="S73" s="84"/>
-      <c r="T73" s="85"/>
-      <c r="U73" s="84"/>
-      <c r="V73" s="84"/>
     </row>
     <row r="74" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="2"/>
-      <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="2"/>
@@ -4721,15 +4713,12 @@
     </row>
     <row r="85" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" s="2"/>
-      <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D86" s="2"/>
-      <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D87" s="2"/>
-      <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D88" s="2"/>
@@ -8400,18 +8389,18 @@
     <sortCondition ref="A9:A60"/>
   </sortState>
   <mergeCells count="8">
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="T70:V70"/>
     <mergeCell ref="Q71:R71"/>
     <mergeCell ref="T71:V71"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="T72:V72"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Q62:V62"/>
     <mergeCell ref="Q63:V63"/>
-    <mergeCell ref="Q64:V64"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8450,28 +8439,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="92"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8579,10 +8568,10 @@
       <c r="T7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="92" t="s">
+      <c r="U7" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="93"/>
+      <c r="V7" s="94"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
@@ -11765,19 +11754,19 @@
     </row>
     <row r="128" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D128" s="2"/>
-      <c r="Q128" s="95" t="s">
+      <c r="Q128" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="R128" s="96"/>
-      <c r="S128" s="96"/>
+      <c r="R128" s="97"/>
+      <c r="S128" s="97"/>
     </row>
     <row r="129" spans="4:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D129" s="2"/>
-      <c r="Q129" s="97" t="s">
+      <c r="Q129" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="R129" s="96"/>
-      <c r="S129" s="96"/>
+      <c r="R129" s="97"/>
+      <c r="S129" s="97"/>
     </row>
     <row r="130" spans="4:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D130" s="2"/>
